--- a/XXXX_NOTE/gre_hackers_verbal/GRE Verbal HW 0306.xlsx
+++ b/XXXX_NOTE/gre_hackers_verbal/GRE Verbal HW 0306.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F65"/>
+  <dimension ref="A2:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,168 +1049,528 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">inextricable </t>
+          <t xml:space="preserve">pluck off </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 불가분한</t>
+          <t xml:space="preserve"> 뽑다</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">dislocation </t>
+          <t xml:space="preserve">embroider </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 탈구(탈골처럼 위치에서 벗어난것)</t>
+          <t xml:space="preserve"> (이야기를) 윤색하다</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">collective </t>
+          <t xml:space="preserve">embellish </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 집단의, 공통의</t>
+          <t xml:space="preserve"> 윤색하다</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">frenzy </t>
+          <t xml:space="preserve">economic strait </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 광분, 광란</t>
+          <t xml:space="preserve"> 경제적 궁핍</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">indecipherable </t>
+          <t xml:space="preserve">woe </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 해독할 수 없는</t>
+          <t xml:space="preserve"> 고민, 비애</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">syndicate </t>
+          <t xml:space="preserve">fidelity </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 기사/프로그램등을 채널에 팔다.</t>
+          <t xml:space="preserve"> 정확도, 충실함</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">repertoire </t>
+          <t xml:space="preserve">concur </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 레퍼토리</t>
+          <t xml:space="preserve"> 동의하다, 일치를 보다</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">augment </t>
+          <t xml:space="preserve">notwithstanding </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 늘리다.</t>
+          <t xml:space="preserve"> 그럼에도 불구하고</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">plunder </t>
+          <t xml:space="preserve">pedigree </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 약탈하다</t>
+          <t xml:space="preserve"> 족보, 혈통있는</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">bare </t>
+          <t xml:space="preserve">antecedent </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 헐벗은/텅빈</t>
+          <t xml:space="preserve"> 선행사건</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">folklore </t>
+          <t xml:space="preserve">elation </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 민속, 전통문화</t>
+          <t xml:space="preserve"> 기쁨</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">discourse </t>
+          <t xml:space="preserve">untoward </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 담론</t>
+          <t xml:space="preserve"> 뜻밖의</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">revered </t>
+          <t xml:space="preserve">popularize </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 존경받는 (reverence)</t>
+          <t xml:space="preserve"> 대중화하다</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
+          <t xml:space="preserve">diccication </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 건조</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lithe </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 유연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hoist </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 들어올리다</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">scrupulously </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 양심적으로</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">flutter </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 흔들림, 소액의 내기 돈</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">articulate </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 잘 표현하는, 또렷한, 분명한</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inextricable </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 불가분한</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dislocation </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 탈구(탈골처럼 위치에서 벗어난것)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">collective </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 집단의, 공통의</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">frenzy </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 광분, 광란</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">clergy </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 성직자들</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">err </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실수를 범하다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mathematics </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Single-minded, literal-minded, simpleminded</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">indecipherable </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해독할 수 없는</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">syndicate </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 기사/프로그램등을 채널에 팔다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">repertoire </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 레퍼토리</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">augment </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 늘리다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">plunder </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 약탈하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bare </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 헐벗은/텅빈</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">folklore </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 민속, 전통문화</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">discourse </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 담론</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">revered </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 존경받는 (reverence)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
           <t xml:space="preserve">concession </t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve"> 인정</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spring </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 갑자기 튀어오르다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">heather </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 헤더 꽃</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">albeit ~ </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 비록 ~ 일지라도</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">impinge </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 영향을 주다</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">upheaval </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 격변의</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rustic </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시골 특유의</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">provenance </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 기원, 유래</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">amenable </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 말을 잘 듣는</t>
         </is>
       </c>
     </row>
